--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5244813_ad_unsw_edu_au/Documents/Computer Engineering/COMP4337/labs/COMP4337_labs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A38289F-5FC6-462E-BDEC-85771449023B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{7A38289F-5FC6-462E-BDEC-85771449023B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45ECDEBC-2F36-45FC-8ACF-CA4227FA116F}"/>
   <bookViews>
-    <workbookView xWindow="1550" yWindow="1040" windowWidth="28800" windowHeight="15460" xr2:uid="{9DC7044B-3D7B-4044-9FA0-12FADBE6C06D}"/>
+    <workbookView xWindow="3960" yWindow="3280" windowWidth="28800" windowHeight="15330" xr2:uid="{9DC7044B-3D7B-4044-9FA0-12FADBE6C06D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,23 +57,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>encryption</t>
+    <t>Present</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>decryption</t>
+    <t>encryption/μs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>digest generation</t>
+    <t>decryption/μs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>signature generation</t>
+    <t>digest generation/μs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Present</t>
+    <t>signature generation/μs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +226,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>encryption</c:v>
+                  <c:v>encryption/μs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -275,22 +275,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10020</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-3</c:v>
+                  <c:v>10020</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E-3</c:v>
+                  <c:v>10018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1E-3</c:v>
+                  <c:v>10018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1E-3</c:v>
+                  <c:v>10018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1E-3</c:v>
+                  <c:v>10004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -310,7 +310,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>decryption</c:v>
+                  <c:v>decryption/μs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -359,22 +359,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-3</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E-3</c:v>
+                  <c:v>10002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1E-3</c:v>
+                  <c:v>10002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1E-3</c:v>
+                  <c:v>10002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1E-3</c:v>
+                  <c:v>10012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -673,7 +673,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>encryption</c:v>
+                  <c:v>encryption/μs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -740,16 +740,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1E-3</c:v>
+                  <c:v>10010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>40038</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>240224</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.188</c:v>
+                  <c:v>1881706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -769,7 +769,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>decryption</c:v>
+                  <c:v>decryption/μs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -839,13 +839,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>30030</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1000000000000001E-2</c:v>
+                  <c:v>220198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17199999999999999</c:v>
+                  <c:v>1711564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1144,7 +1144,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>encryption</c:v>
+                  <c:v>encryption/μs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1214,13 +1214,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1E-3</c:v>
+                  <c:v>10006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>30028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.03</c:v>
+                  <c:v>290254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1240,7 +1240,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>decryption</c:v>
+                  <c:v>decryption/μs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1307,16 +1307,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1E-3</c:v>
+                  <c:v>10014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>30038</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>230204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,7 +1623,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>digest generation</c:v>
+                  <c:v>digest generation/μs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1687,19 +1687,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1E-3</c:v>
+                  <c:v>9998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1E-3</c:v>
+                  <c:v>10008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01</c:v>
+                  <c:v>110092</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10199999999999999</c:v>
+                  <c:v>1010914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1975,7 +1975,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>signature generation</c:v>
+                  <c:v>signature generation/μs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2045,13 +2045,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1E-3</c:v>
+                  <c:v>10010</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>40028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3000000000000002E-2</c:v>
+                  <c:v>340302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5434,12 +5434,12 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5491,21 +5491,21 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1E-3</v>
+        <v>10010</v>
       </c>
       <c r="G3">
-        <v>4.0000000000000001E-3</v>
+        <v>40038</v>
       </c>
       <c r="H3">
-        <v>2.4E-2</v>
+        <v>240224</v>
       </c>
       <c r="I3">
-        <v>0.188</v>
+        <v>1881706</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5523,13 +5523,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.0000000000000001E-3</v>
+        <v>30030</v>
       </c>
       <c r="H4">
-        <v>2.1000000000000001E-2</v>
+        <v>220198</v>
       </c>
       <c r="I4">
-        <v>0.17199999999999999</v>
+        <v>1711564</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -5565,7 +5565,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5583,18 +5583,18 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1E-3</v>
+        <v>10006</v>
       </c>
       <c r="H9">
-        <v>4.0000000000000001E-3</v>
+        <v>30028</v>
       </c>
       <c r="I9">
-        <v>0.03</v>
+        <v>290254</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5609,16 +5609,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
+        <v>10014</v>
       </c>
       <c r="H10">
-        <v>3.0000000000000001E-3</v>
+        <v>30038</v>
       </c>
       <c r="I10">
-        <v>2.3E-2</v>
+        <v>230204</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -5648,48 +5648,48 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>10020</v>
       </c>
       <c r="C14">
-        <v>1E-3</v>
+        <v>10020</v>
       </c>
       <c r="D14">
-        <v>1E-3</v>
+        <v>10018</v>
       </c>
       <c r="E14">
-        <v>1E-3</v>
+        <v>10018</v>
       </c>
       <c r="F14">
-        <v>1E-3</v>
+        <v>10018</v>
       </c>
       <c r="G14">
-        <v>1E-3</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>1E-3</v>
+        <v>10000</v>
       </c>
       <c r="C15">
-        <v>1E-3</v>
+        <v>10000</v>
       </c>
       <c r="D15">
-        <v>1E-3</v>
+        <v>10002</v>
       </c>
       <c r="E15">
-        <v>1E-3</v>
+        <v>10002</v>
       </c>
       <c r="F15">
-        <v>1E-3</v>
+        <v>10002</v>
       </c>
       <c r="G15">
-        <v>1E-3</v>
+        <v>10012</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -5725,7 +5725,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5737,19 +5737,19 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1E-3</v>
+        <v>9998</v>
       </c>
       <c r="G19">
-        <v>1E-3</v>
+        <v>10008</v>
       </c>
       <c r="H19">
-        <v>0.01</v>
+        <v>110092</v>
       </c>
       <c r="I19">
-        <v>0.10199999999999999</v>
+        <v>1010914</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -5785,7 +5785,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5803,18 +5803,18 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1E-3</v>
+        <v>10010</v>
       </c>
       <c r="H24">
-        <v>5.0000000000000001E-3</v>
+        <v>40028</v>
       </c>
       <c r="I24">
-        <v>3.3000000000000002E-2</v>
+        <v>340302</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,17 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unsw-my.sharepoint.com/personal/z5244813_ad_unsw_edu_au/Documents/Computer Engineering/COMP4337/labs/COMP4337_labs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sola\Desktop\COMP4337_labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{7A38289F-5FC6-462E-BDEC-85771449023B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45ECDEBC-2F36-45FC-8ACF-CA4227FA116F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D161CEA-E746-4F28-86A9-AEDDCA6CAB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="3280" windowWidth="28800" windowHeight="15330" xr2:uid="{9DC7044B-3D7B-4044-9FA0-12FADBE6C06D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DC7044B-3D7B-4044-9FA0-12FADBE6C06D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$19</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$18:$I$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$19:$I$19</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>DES</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,7 +129,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -144,7 +147,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -591,7 +594,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1062,7 +1065,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1533,7 +1536,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1885,7 +1888,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2199,6 +2202,421 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Present</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>encryption/μs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$27:$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CAF-470C-9332-ED8009CB8CD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>decryption/μs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$27:$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8CAF-470C-9332-ED8009CB8CD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="653449152"/>
+        <c:axId val="653451120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="653449152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653451120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="653451120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653449152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2434,6 +2852,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4447,6 +4905,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5131,11 +6092,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>614362</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D34C8E38-702B-49B4-93D7-7E30B466B533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5431,24 +6428,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08D9D74-FEA4-4DF5-9CD3-99657CE60552}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>16</v>
       </c>
@@ -5474,7 +6471,7 @@
         <v>16377216</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5503,7 +6500,7 @@
         <v>1881706</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5532,12 +6529,12 @@
         <v>1711564</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>16</v>
       </c>
@@ -5563,7 +6560,7 @@
         <v>16377216</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5592,7 +6589,7 @@
         <v>290254</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5621,12 +6618,12 @@
         <v>230204</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>2</v>
       </c>
@@ -5646,7 +6643,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -5669,7 +6666,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -5692,12 +6689,12 @@
         <v>10012</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>16</v>
       </c>
@@ -5723,7 +6720,7 @@
         <v>16377216</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -5752,12 +6749,12 @@
         <v>1010914</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>16</v>
       </c>
@@ -5783,7 +6780,7 @@
         <v>16377216</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -5812,9 +6809,57 @@
         <v>340302</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>10000</v>
+      </c>
+      <c r="C29">
+        <v>10000</v>
+      </c>
+      <c r="D29">
+        <v>10000</v>
+      </c>
+      <c r="E29">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>10000</v>
+      </c>
+      <c r="C30">
+        <v>10000</v>
+      </c>
+      <c r="D30">
+        <v>10002</v>
+      </c>
+      <c r="E30">
+        <v>9998</v>
       </c>
     </row>
   </sheetData>
